--- a/24ПМ.xlsx
+++ b/24ПМ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ПМ1" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t xml:space="preserve">кр 1</t>
   </si>
@@ -25,6 +25,9 @@
     <t xml:space="preserve">лаб 1</t>
   </si>
   <si>
+    <t xml:space="preserve">до 11.12</t>
+  </si>
+  <si>
     <t xml:space="preserve">кр 2</t>
   </si>
   <si>
@@ -34,12 +37,27 @@
     <t xml:space="preserve">Баршкетис Алина</t>
   </si>
   <si>
+    <t>https://github.com/SKYPlDAR/III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сделать функцию</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Большаков Данил</t>
   </si>
   <si>
     <t xml:space="preserve">Воробьев Иван</t>
   </si>
   <si>
+    <t>https://github.com/ZloyGysb/palindrom/blob/main/palindrome.c</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t xml:space="preserve">Гильманов Денис</t>
   </si>
   <si>
@@ -55,21 +73,36 @@
     <t xml:space="preserve">Жданов Роман</t>
   </si>
   <si>
+    <t>https://github.com/JaProCar/Script_arch</t>
+  </si>
+  <si>
     <t xml:space="preserve">Казенный Павел</t>
   </si>
   <si>
     <t xml:space="preserve">Кирин Иван</t>
   </si>
   <si>
+    <t>https://github.com/Iv4nKer/lab11dec2024/blob/main/lab11dec_KI.sh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Князев Денис</t>
   </si>
   <si>
+    <t>https://github.com/13bururu/zxc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Кострюков Руслан</t>
   </si>
   <si>
+    <t>https://github.com/BlackTea-crypto/lab1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Крюков Никита</t>
   </si>
   <si>
+    <t>https://github.com/SweetSalt1/Contact-book/blob/master/cotact_details</t>
+  </si>
+  <si>
     <t xml:space="preserve">Мальков Александр</t>
   </si>
   <si>
@@ -79,27 +112,60 @@
     <t xml:space="preserve">Межуев Павел</t>
   </si>
   <si>
+    <t>https://gitlab.com/24pm124/Labb/-/blob/main/Rashodi?ref_type=heads</t>
+  </si>
+  <si>
     <t xml:space="preserve">Попельницкий Егор</t>
   </si>
   <si>
+    <t>https://github.com/milanacharonova/script1/blob/main/lab</t>
+  </si>
+  <si>
     <t xml:space="preserve">Пушков Михаил</t>
   </si>
   <si>
+    <t>https://github.com/YoDarkol23/che/tree/944f55d58d8c3bc5a5a62994af7628c44b2b871d</t>
+  </si>
+  <si>
     <t xml:space="preserve">Серова Ксения</t>
   </si>
   <si>
+    <t>https://github.com/Kseniya467/REP1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Скоблова Ксения</t>
   </si>
   <si>
+    <t>https://github.com/kimeeko/script-for-archives/blob/main/script-24-pm-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">поправить команду архиватора</t>
+  </si>
+  <si>
     <t xml:space="preserve">Туптов Антон</t>
   </si>
   <si>
     <t xml:space="preserve">Цырулик Артём</t>
   </si>
   <si>
+    <t>https://github.com/rcm-nodux/Lab.git</t>
+  </si>
+  <si>
+    <t>gpt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Чухманова Анастасия</t>
   </si>
   <si>
+    <t>https://github.com/Anstch/-/blob/main/.lab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">до 9.12</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
     <t xml:space="preserve">Архипов Егор</t>
   </si>
   <si>
@@ -109,61 +175,115 @@
     <t xml:space="preserve">Виноградова Анна</t>
   </si>
   <si>
+    <t>https://github.com/Anna-0502/StudentWork/blob/main/oi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Галкин Егор</t>
   </si>
   <si>
+    <t>https://github.com/EgorGalkin24PM2/Laboratornie-works/blob/main/lab_bash</t>
+  </si>
+  <si>
     <t xml:space="preserve">Гришин Денис</t>
   </si>
   <si>
+    <t>https://github.com/grecasss/-/blob/main/123</t>
+  </si>
+  <si>
     <t xml:space="preserve">Гуркина Софья</t>
   </si>
   <si>
+    <t>https://github.com/SonaGurkina/lab3-var6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ершов Сергей</t>
   </si>
   <si>
     <t xml:space="preserve">Зудилов Тимофей</t>
   </si>
   <si>
+    <t>https://github.com/Osiro-yati/Base_of_Infotmatic/blob/main/archive.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нет функции</t>
+  </si>
+  <si>
     <t xml:space="preserve">Киляков Андрей</t>
   </si>
   <si>
     <t xml:space="preserve">Клопов Андрей</t>
   </si>
   <si>
+    <t>https://github.com/EnderFay/Basics_of_computer_science/blob/main/lab10.bash</t>
+  </si>
+  <si>
     <t xml:space="preserve">Коробов Роман</t>
   </si>
   <si>
+    <t xml:space="preserve">без функций</t>
+  </si>
+  <si>
     <t xml:space="preserve">Курицын Никита</t>
   </si>
   <si>
+    <t>https://github.com/BillyMarkII/Lab</t>
+  </si>
+  <si>
     <t xml:space="preserve">Маркин Егор</t>
   </si>
   <si>
+    <t>https://github.com/maruch2000/laboratornaya/blob/main/laba091224</t>
+  </si>
+  <si>
     <t xml:space="preserve">Навроцкая Вероника</t>
   </si>
   <si>
+    <t>https://github.com/VeronikaNav/csript/blob/main/script.txt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Николаев Даниил</t>
   </si>
   <si>
+    <t>https://github.com/alskare/laba_OI_Nikolaev/blob/main/oi_laba2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Почтеннов Кирилл</t>
   </si>
   <si>
+    <t>https://github.com/Dessernn/bash-.git</t>
+  </si>
+  <si>
     <t xml:space="preserve">Пылаев Артём</t>
   </si>
   <si>
+    <t>https://github.com/fhntv-24/labi.git</t>
+  </si>
+  <si>
     <t xml:space="preserve">Серышева Елена</t>
   </si>
   <si>
+    <t>https://github.com/Kurabuba/laba_BCS/blob/main/test</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сурков Дмитрий</t>
   </si>
   <si>
     <t xml:space="preserve">Толич Максим</t>
   </si>
   <si>
+    <t>https://github.com/wyvzz/archivefile</t>
+  </si>
+  <si>
     <t xml:space="preserve">Уряднов Владислав</t>
   </si>
   <si>
+    <t>https://github.com/QRROZI/Labs_Infa/blob/main/Laba1_OI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Чернова Елизавета</t>
+  </si>
+  <si>
+    <t>https://github.com/Lizzza19/bug-free-waffle/blob/main/script.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Шеферова Полина</t>
@@ -173,15 +293,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +316,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor theme="9" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0"/>
+        <bgColor theme="9" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0"/>
+        <bgColor theme="5" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="5"/>
         <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="9" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0"/>
+        <bgColor theme="7" tint="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -222,15 +378,28 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -744,7 +913,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -768,9 +937,11 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -779,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -794,25 +965,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>50</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -830,25 +1007,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>50</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>3</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -866,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -884,7 +1067,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -902,7 +1085,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>40</v>
@@ -920,25 +1103,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>50</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="E10" s="7">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <v>50</v>
@@ -956,79 +1145,103 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>50</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>10</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
         <v>50</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>11</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="F13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>50</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="E14" s="7">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
         <v>50</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1">
+      <c r="E15" s="7">
         <v>13</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="F15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1046,7 +1259,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1064,97 +1277,127 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="E18" s="7">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1">
         <v>50</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1">
+      <c r="E19" s="7">
         <v>11</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1">
         <v>21</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1">
+      <c r="E20" s="7">
         <v>10</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="F20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1">
         <v>50</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1">
+      <c r="E21" s="7">
         <v>9</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1">
         <v>50</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="E22" s="3">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1">
         <v>50</v>
@@ -1172,17 +1415,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1">
+      <c r="E24" s="8">
         <v>6</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" ht="14.25">
@@ -1190,17 +1437,21 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1">
+      <c r="E25" s="8">
         <v>5</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" ht="14.25">
@@ -1299,6 +1550,22 @@
       <c r="C50" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="F3"/>
+    <hyperlink r:id="rId2" ref="F5"/>
+    <hyperlink r:id="rId3" ref="F10"/>
+    <hyperlink r:id="rId4" ref="F12"/>
+    <hyperlink r:id="rId5" ref="F13"/>
+    <hyperlink r:id="rId6" ref="F14"/>
+    <hyperlink r:id="rId7" ref="F15"/>
+    <hyperlink r:id="rId8" ref="F18"/>
+    <hyperlink r:id="rId9" ref="F19"/>
+    <hyperlink r:id="rId10" ref="F20"/>
+    <hyperlink r:id="rId11" ref="F21"/>
+    <hyperlink r:id="rId12" ref="F22"/>
+    <hyperlink r:id="rId13" ref="F24"/>
+    <hyperlink r:id="rId14" ref="F25"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -1309,7 +1576,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1329,18 +1596,20 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1">
         <v>50</v>
@@ -1357,8 +1626,8 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
+      <c r="B3" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1376,53 +1645,69 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1">
         <v>50</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>3</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1">
         <v>50</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>4</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="E6" s="8">
         <v>5</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" ht="14.25">
@@ -1430,17 +1715,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="E7" s="8">
         <v>6</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" ht="14.25">
@@ -1448,7 +1737,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1466,25 +1755,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="E9" s="7">
+        <v>8</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1502,53 +1797,67 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1">
         <v>50</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>10</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="F11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1">
         <v>50</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>11</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1">
         <v>50</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="E13" s="12">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" ht="14.25">
@@ -1556,71 +1865,93 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1">
+      <c r="E14" s="7">
         <v>13</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="F14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1">
         <v>50</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1">
+      <c r="E15" s="7">
         <v>14</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="F15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1">
         <v>50</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1">
+      <c r="E16" s="7">
         <v>13</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="F16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="E17" s="8">
+        <v>12</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" ht="14.25">
@@ -1628,43 +1959,55 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1">
         <v>50</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1">
+      <c r="E18" s="7">
         <v>11</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="F18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1">
         <v>50</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1">
+      <c r="E19" s="7">
         <v>10</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C20" s="1">
         <v>50</v>
@@ -1682,61 +2025,79 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1">
-        <v>8</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="E21" s="7">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C22" s="1">
         <v>50</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1">
+      <c r="E22" s="7">
         <v>7</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="F22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1">
         <v>50</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1">
+      <c r="E23" s="7">
         <v>6</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="F23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -1750,17 +2111,17 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="15"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="15"/>
     </row>
     <row r="27" ht="14.25">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="B28" s="3"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" ht="14.25">
@@ -1848,6 +2209,24 @@
       <c r="C49" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="F4"/>
+    <hyperlink r:id="rId2" ref="F5"/>
+    <hyperlink r:id="rId3" ref="F6"/>
+    <hyperlink r:id="rId4" ref="F7"/>
+    <hyperlink r:id="rId5" ref="F9"/>
+    <hyperlink r:id="rId6" ref="F11"/>
+    <hyperlink r:id="rId7" ref="F13"/>
+    <hyperlink r:id="rId8" ref="F14"/>
+    <hyperlink r:id="rId9" ref="F15"/>
+    <hyperlink r:id="rId10" ref="F16"/>
+    <hyperlink r:id="rId11" ref="F17"/>
+    <hyperlink r:id="rId12" ref="F18" tooltip=""/>
+    <hyperlink r:id="rId13" ref="F19"/>
+    <hyperlink r:id="rId14" ref="F21"/>
+    <hyperlink r:id="rId15" ref="F22"/>
+    <hyperlink r:id="rId16" ref="F23"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/24ПМ.xlsx
+++ b/24ПМ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ПМ1" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t xml:space="preserve">кр 1</t>
   </si>
@@ -49,15 +49,18 @@
     <t xml:space="preserve">Большаков Данил</t>
   </si>
   <si>
+    <t>https://github.com/Danil24b/Repos.git</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t xml:space="preserve">Воробьев Иван</t>
   </si>
   <si>
     <t>https://github.com/ZloyGysb/palindrom/blob/main/palindrome.c</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Гильманов Денис</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t xml:space="preserve">Казенный Павел</t>
   </si>
   <si>
+    <t>https://github.com/botaimpenny/-</t>
+  </si>
+  <si>
     <t xml:space="preserve">Кирин Иван</t>
   </si>
   <si>
@@ -143,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">Туптов Антон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">опоздал на 18мин</t>
   </si>
   <si>
     <t xml:space="preserve">Цырулик Артём</t>
@@ -316,14 +325,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0"/>
+        <bgColor theme="9" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0"/>
-        <bgColor theme="9" tint="0"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor theme="7" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
     <fill>
@@ -378,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1">
@@ -386,9 +395,8 @@
     </xf>
     <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1">
       <protection hidden="0" locked="1"/>
@@ -399,7 +407,7 @@
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -977,10 +985,10 @@
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -995,34 +1003,40 @@
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>50</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1031,7 +1045,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1049,7 +1063,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1067,7 +1081,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1085,7 +1099,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>40</v>
@@ -1103,22 +1117,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
         <v>50</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1127,40 +1141,46 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>50</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>9</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="F11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
         <v>50</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1169,22 +1189,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
         <v>50</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="7">
+      <c r="E13" s="3">
         <v>11</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1193,22 +1213,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>50</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1217,22 +1237,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
         <v>50</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1241,7 +1261,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1259,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1277,22 +1297,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="7">
+      <c r="E18" s="3">
         <v>12</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1301,22 +1321,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1">
         <v>50</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="7">
+      <c r="E19" s="3">
         <v>11</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1325,22 +1345,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1">
         <v>21</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="7">
+      <c r="E20" s="3">
         <v>10</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1349,22 +1369,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1">
         <v>50</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="7">
+      <c r="E21" s="3">
         <v>9</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1373,7 +1393,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1">
         <v>50</v>
@@ -1383,12 +1403,12 @@
         <v>8</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1397,38 +1417,42 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1">
         <v>50</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1">
+      <c r="E23" s="5">
         <v>7</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>6</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -1437,20 +1461,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>5</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -1552,19 +1576,21 @@
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F3"/>
-    <hyperlink r:id="rId2" ref="F5"/>
-    <hyperlink r:id="rId3" ref="F10"/>
-    <hyperlink r:id="rId4" ref="F12"/>
-    <hyperlink r:id="rId5" ref="F13"/>
-    <hyperlink r:id="rId6" ref="F14"/>
-    <hyperlink r:id="rId7" ref="F15"/>
-    <hyperlink r:id="rId8" ref="F18"/>
-    <hyperlink r:id="rId9" ref="F19"/>
-    <hyperlink r:id="rId10" ref="F20"/>
-    <hyperlink r:id="rId11" ref="F21"/>
-    <hyperlink r:id="rId12" ref="F22"/>
-    <hyperlink r:id="rId13" ref="F24"/>
-    <hyperlink r:id="rId14" ref="F25"/>
+    <hyperlink r:id="rId2" ref="F4"/>
+    <hyperlink r:id="rId3" ref="F5"/>
+    <hyperlink r:id="rId4" ref="F10"/>
+    <hyperlink r:id="rId5" ref="F11"/>
+    <hyperlink r:id="rId6" ref="F12"/>
+    <hyperlink r:id="rId7" ref="F13"/>
+    <hyperlink r:id="rId8" ref="F14"/>
+    <hyperlink r:id="rId9" ref="F15"/>
+    <hyperlink r:id="rId10" ref="F18"/>
+    <hyperlink r:id="rId11" ref="F19"/>
+    <hyperlink r:id="rId12" ref="F20"/>
+    <hyperlink r:id="rId13" ref="F21"/>
+    <hyperlink r:id="rId14" ref="F22"/>
+    <hyperlink r:id="rId15" ref="F24"/>
+    <hyperlink r:id="rId16" ref="F25"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -1597,11 +1623,11 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="5" t="s">
-        <v>48</v>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -1609,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1">
         <v>50</v>
@@ -1626,8 +1652,8 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>50</v>
+      <c r="B3" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1645,22 +1671,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1">
         <v>50</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1669,22 +1695,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1">
         <v>50</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1693,20 +1719,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>5</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -1715,20 +1741,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>6</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>58</v>
+      <c r="F7" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -1737,7 +1763,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1755,22 +1781,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="7">
-        <v>8</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>61</v>
+      <c r="E9" s="3">
+        <v>8</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1779,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1797,22 +1823,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1">
         <v>50</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1821,20 +1847,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1">
         <v>50</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>11</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1843,20 +1869,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1">
         <v>50</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
+        <v>72</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -1865,22 +1891,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <v>13</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1889,22 +1915,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1">
         <v>50</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>14</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1913,22 +1939,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1">
         <v>50</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <v>13</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1937,20 +1963,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>12</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>77</v>
+      <c r="F17" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -1959,22 +1985,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1">
         <v>50</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="7">
-        <v>11</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="E18" s="3">
+        <v>11</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1983,22 +2009,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1">
         <v>50</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="7">
+      <c r="E19" s="3">
         <v>10</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>81</v>
+      <c r="F19" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2007,7 +2033,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C20" s="1">
         <v>50</v>
@@ -2025,22 +2051,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="7">
+      <c r="E21" s="3">
         <v>8</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2049,22 +2075,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1">
         <v>50</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="7">
+      <c r="E22" s="3">
         <v>7</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2073,22 +2099,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1">
         <v>50</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="7">
+      <c r="E23" s="3">
         <v>6</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2097,7 +2123,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -2111,17 +2137,17 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="14"/>
     </row>
     <row r="27" ht="14.25">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="B28" s="9"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" ht="14.25">
